--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I464"/>
+  <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16658,6 +16658,43 @@
         <v>12700</v>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I465"/>
+  <dimension ref="A1:I466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16695,6 +16695,41 @@
         </is>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I466" t="n">
+        <v>192700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I466"/>
+  <dimension ref="A1:I467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16730,6 +16730,43 @@
         <v>192700</v>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I467"/>
+  <dimension ref="A1:I468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16767,6 +16767,43 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I468"/>
+  <dimension ref="A1:I469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16804,6 +16804,41 @@
         </is>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I469" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I469"/>
+  <dimension ref="A1:I470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16839,6 +16839,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F470" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I470" t="n">
+        <v>11600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I470"/>
+  <dimension ref="A1:I471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16874,6 +16874,41 @@
         <v>11600</v>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I471" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I471"/>
+  <dimension ref="A1:I472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16909,6 +16909,41 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I472" t="n">
+        <v>38200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I472"/>
+  <dimension ref="A1:I473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16944,6 +16944,41 @@
         <v>38200</v>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I473" t="n">
+        <v>110100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I473"/>
+  <dimension ref="A1:I474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16979,6 +16979,41 @@
         <v>110100</v>
       </c>
     </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I474" t="n">
+        <v>95500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I474"/>
+  <dimension ref="A1:I475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17014,6 +17014,41 @@
         <v>95500</v>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I475" t="n">
+        <v>75400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I475"/>
+  <dimension ref="A1:I476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17049,6 +17049,41 @@
         <v>75400</v>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I476" t="n">
+        <v>281000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I476"/>
+  <dimension ref="A1:I478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17084,6 +17084,78 @@
         <v>281000</v>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I478" t="n">
+        <v>944200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I478"/>
+  <dimension ref="A1:I480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17156,6 +17156,76 @@
         <v>944200</v>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I479" t="n">
+        <v>227300</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I480" t="n">
+        <v>325000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I480"/>
+  <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17226,6 +17226,41 @@
         <v>325000</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F481" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I481" t="n">
+        <v>192700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I481"/>
+  <dimension ref="A1:I482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17261,6 +17261,41 @@
         <v>192700</v>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G482" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I482" t="n">
+        <v>68800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I482"/>
+  <dimension ref="A1:I483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17296,6 +17296,41 @@
         <v>68800</v>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E483" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I483" t="n">
+        <v>249300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I483"/>
+  <dimension ref="A1:I484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17331,6 +17331,41 @@
         <v>249300</v>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I484" t="n">
+        <v>1003400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I484"/>
+  <dimension ref="A1:I486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17366,6 +17366,76 @@
         <v>1003400</v>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E485" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I485" t="n">
+        <v>308300</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E486" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I486" t="n">
+        <v>143900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I486"/>
+  <dimension ref="A1:I487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17436,6 +17436,41 @@
         <v>143900</v>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E487" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I487" t="n">
+        <v>167200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I487"/>
+  <dimension ref="A1:I488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17471,6 +17471,41 @@
         <v>167200</v>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I488" t="n">
+        <v>1224200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I488"/>
+  <dimension ref="A1:I497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14939,11 +14939,11 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14957,28 +14957,28 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="F416" t="n">
-        <v>0.28</v>
+        <v>0.315</v>
       </c>
       <c r="G416" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="H416" t="n">
-        <v>0.28</v>
+        <v>0.305</v>
       </c>
       <c r="I416" t="n">
-        <v>121800</v>
+        <v>1999500</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14992,28 +14992,28 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>0.27</v>
+        <v>0.305</v>
       </c>
       <c r="F417" t="n">
-        <v>0.27</v>
+        <v>0.305</v>
       </c>
       <c r="G417" t="n">
-        <v>0.265</v>
+        <v>0.295</v>
       </c>
       <c r="H417" t="n">
-        <v>0.265</v>
+        <v>0.295</v>
       </c>
       <c r="I417" t="n">
-        <v>77500</v>
+        <v>746300</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -15027,28 +15027,28 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>0.265</v>
+        <v>0.295</v>
       </c>
       <c r="F418" t="n">
-        <v>0.275</v>
+        <v>0.295</v>
       </c>
       <c r="G418" t="n">
-        <v>0.265</v>
+        <v>0.29</v>
       </c>
       <c r="H418" t="n">
-        <v>0.275</v>
+        <v>0.29</v>
       </c>
       <c r="I418" t="n">
-        <v>35300</v>
+        <v>689100</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -15062,30 +15062,28 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>0.275</v>
+        <v>0.285</v>
       </c>
       <c r="F419" t="n">
-        <v>0.275</v>
+        <v>0.29</v>
       </c>
       <c r="G419" t="n">
-        <v>0.275</v>
+        <v>0.285</v>
       </c>
       <c r="H419" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="I419" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.285</v>
+      </c>
+      <c r="I419" t="n">
+        <v>220300</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -15099,28 +15097,28 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="F420" t="n">
-        <v>0.275</v>
+        <v>0.295</v>
       </c>
       <c r="G420" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="H420" t="n">
-        <v>0.27</v>
+        <v>0.295</v>
       </c>
       <c r="I420" t="n">
-        <v>157900</v>
+        <v>184400</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -15134,28 +15132,28 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>0.27</v>
+        <v>0.295</v>
       </c>
       <c r="F421" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G421" t="n">
         <v>0.28</v>
       </c>
-      <c r="G421" t="n">
-        <v>0.27</v>
-      </c>
       <c r="H421" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I421" t="n">
-        <v>237300</v>
+        <v>298000</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -15169,7 +15167,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F422" t="n">
         <v>0.28</v>
@@ -15178,19 +15176,19 @@
         <v>0.27</v>
       </c>
       <c r="H422" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I422" t="n">
-        <v>303200</v>
+        <v>649200</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -15213,19 +15211,19 @@
         <v>0.27</v>
       </c>
       <c r="H423" t="n">
-        <v>0.275</v>
+        <v>0.27</v>
       </c>
       <c r="I423" t="n">
-        <v>467100</v>
+        <v>362000</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -15239,7 +15237,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.275</v>
+        <v>0.27</v>
       </c>
       <c r="F424" t="n">
         <v>0.275</v>
@@ -15251,16 +15249,16 @@
         <v>0.27</v>
       </c>
       <c r="I424" t="n">
-        <v>97500</v>
+        <v>97200</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -15277,25 +15275,25 @@
         <v>0.27</v>
       </c>
       <c r="F425" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G425" t="n">
         <v>0.27</v>
       </c>
-      <c r="G425" t="n">
-        <v>0.265</v>
-      </c>
       <c r="H425" t="n">
-        <v>0.265</v>
+        <v>0.28</v>
       </c>
       <c r="I425" t="n">
-        <v>115100</v>
+        <v>121800</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -15309,7 +15307,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="F426" t="n">
         <v>0.27</v>
@@ -15318,19 +15316,19 @@
         <v>0.265</v>
       </c>
       <c r="H426" t="n">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="I426" t="n">
-        <v>192200</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -15344,28 +15342,28 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="F427" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="G427" t="n">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="H427" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="I427" t="n">
-        <v>224400</v>
+        <v>35300</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -15379,28 +15377,30 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="F428" t="n">
         <v>0.275</v>
       </c>
       <c r="G428" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="H428" t="n">
         <v>0.275</v>
       </c>
-      <c r="I428" t="n">
-        <v>210900</v>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -15423,19 +15423,19 @@
         <v>0.27</v>
       </c>
       <c r="H429" t="n">
-        <v>0.275</v>
+        <v>0.27</v>
       </c>
       <c r="I429" t="n">
-        <v>260800</v>
+        <v>157900</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -15449,30 +15449,28 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.275</v>
+        <v>0.27</v>
       </c>
       <c r="F430" t="n">
-        <v>0.275</v>
+        <v>0.28</v>
       </c>
       <c r="G430" t="n">
-        <v>0.275</v>
+        <v>0.27</v>
       </c>
       <c r="H430" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="I430" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.28</v>
+      </c>
+      <c r="I430" t="n">
+        <v>237300</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15486,28 +15484,28 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="F431" t="n">
-        <v>0.265</v>
+        <v>0.28</v>
       </c>
       <c r="G431" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="H431" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="I431" t="n">
-        <v>234900</v>
+        <v>303200</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15521,28 +15519,28 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="F432" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G432" t="n">
         <v>0.27</v>
       </c>
-      <c r="G432" t="n">
-        <v>0.265</v>
-      </c>
       <c r="H432" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="I432" t="n">
-        <v>60000</v>
+        <v>467100</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15556,28 +15554,28 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="F433" t="n">
         <v>0.275</v>
       </c>
       <c r="G433" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="H433" t="n">
-        <v>0.275</v>
+        <v>0.27</v>
       </c>
       <c r="I433" t="n">
-        <v>147100</v>
+        <v>97500</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15594,25 +15592,25 @@
         <v>0.27</v>
       </c>
       <c r="F434" t="n">
-        <v>0.275</v>
+        <v>0.27</v>
       </c>
       <c r="G434" t="n">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="H434" t="n">
-        <v>0.275</v>
+        <v>0.265</v>
       </c>
       <c r="I434" t="n">
-        <v>200200</v>
+        <v>115100</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15626,28 +15624,28 @@
         </is>
       </c>
       <c r="E435" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F435" t="n">
         <v>0.27</v>
       </c>
-      <c r="F435" t="n">
-        <v>0.275</v>
-      </c>
       <c r="G435" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H435" t="n">
         <v>0.27</v>
       </c>
-      <c r="H435" t="n">
-        <v>0.275</v>
-      </c>
       <c r="I435" t="n">
-        <v>61200</v>
+        <v>192200</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15664,25 +15662,25 @@
         <v>0.27</v>
       </c>
       <c r="F436" t="n">
-        <v>0.275</v>
+        <v>0.27</v>
       </c>
       <c r="G436" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="H436" t="n">
         <v>0.27</v>
       </c>
       <c r="I436" t="n">
-        <v>774800</v>
+        <v>224400</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15696,28 +15694,28 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="F437" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G437" t="n">
         <v>0.27</v>
       </c>
-      <c r="G437" t="n">
-        <v>0.26</v>
-      </c>
       <c r="H437" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="I437" t="n">
-        <v>316200</v>
+        <v>210900</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15731,28 +15729,28 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="F438" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G438" t="n">
         <v>0.27</v>
       </c>
-      <c r="G438" t="n">
-        <v>0.265</v>
-      </c>
       <c r="H438" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="I438" t="n">
-        <v>355100</v>
+        <v>260800</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15766,28 +15764,30 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="F439" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="G439" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="H439" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="I439" t="n">
-        <v>44800</v>
+        <v>0.275</v>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15801,28 +15801,28 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="F440" t="n">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="G440" t="n">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="H440" t="n">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="I440" t="n">
-        <v>2000</v>
+        <v>234900</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15848,16 +15848,16 @@
         <v>0.27</v>
       </c>
       <c r="I441" t="n">
-        <v>443800</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15874,25 +15874,25 @@
         <v>0.265</v>
       </c>
       <c r="F442" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="G442" t="n">
         <v>0.265</v>
       </c>
       <c r="H442" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="I442" t="n">
-        <v>17400</v>
+        <v>147100</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15906,28 +15906,28 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F443" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="G443" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="H443" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="I443" t="n">
-        <v>182500</v>
+        <v>200200</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15941,28 +15941,28 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="F444" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G444" t="n">
         <v>0.27</v>
       </c>
-      <c r="G444" t="n">
-        <v>0.26</v>
-      </c>
       <c r="H444" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="I444" t="n">
-        <v>101100</v>
+        <v>61200</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15976,28 +15976,28 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="F445" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="G445" t="n">
-        <v>0.265</v>
+        <v>0.26</v>
       </c>
       <c r="H445" t="n">
         <v>0.27</v>
       </c>
       <c r="I445" t="n">
-        <v>16000</v>
+        <v>774800</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -16011,28 +16011,28 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="F446" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="G446" t="n">
         <v>0.26</v>
       </c>
       <c r="H446" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="I446" t="n">
-        <v>366900</v>
+        <v>316200</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -16046,28 +16046,28 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="F447" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G447" t="n">
         <v>0.265</v>
       </c>
-      <c r="G447" t="n">
-        <v>0.26</v>
-      </c>
       <c r="H447" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="I447" t="n">
-        <v>180200</v>
+        <v>355100</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -16081,28 +16081,28 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="F448" t="n">
         <v>0.265</v>
       </c>
       <c r="G448" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="H448" t="n">
         <v>0.265</v>
       </c>
       <c r="I448" t="n">
-        <v>41100</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -16116,28 +16116,28 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F449" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="G449" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="H449" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="I449" t="n">
-        <v>58400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -16151,28 +16151,28 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>0.255</v>
+        <v>0.265</v>
       </c>
       <c r="F450" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G450" t="n">
         <v>0.265</v>
       </c>
-      <c r="G450" t="n">
-        <v>0.255</v>
-      </c>
       <c r="H450" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I450" t="n">
-        <v>144500</v>
+        <v>443800</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -16186,28 +16186,28 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0.255</v>
+        <v>0.265</v>
       </c>
       <c r="F451" t="n">
         <v>0.265</v>
       </c>
       <c r="G451" t="n">
-        <v>0.255</v>
+        <v>0.265</v>
       </c>
       <c r="H451" t="n">
         <v>0.265</v>
       </c>
       <c r="I451" t="n">
-        <v>99500</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -16221,28 +16221,28 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.255</v>
+        <v>0.26</v>
       </c>
       <c r="F452" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G452" t="n">
         <v>0.26</v>
       </c>
-      <c r="G452" t="n">
-        <v>0.255</v>
-      </c>
       <c r="H452" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="I452" t="n">
-        <v>185600</v>
+        <v>182500</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -16256,28 +16256,28 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>0.255</v>
+        <v>0.265</v>
       </c>
       <c r="F453" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G453" t="n">
         <v>0.26</v>
       </c>
-      <c r="G453" t="n">
-        <v>0.255</v>
-      </c>
       <c r="H453" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I453" t="n">
-        <v>36100</v>
+        <v>101100</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -16291,28 +16291,28 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0.255</v>
+        <v>0.265</v>
       </c>
       <c r="F454" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G454" t="n">
-        <v>0.25</v>
+        <v>0.265</v>
       </c>
       <c r="H454" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I454" t="n">
-        <v>267400</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -16326,28 +16326,28 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F455" t="n">
-        <v>0.25</v>
+        <v>0.265</v>
       </c>
       <c r="G455" t="n">
-        <v>0.245</v>
+        <v>0.26</v>
       </c>
       <c r="H455" t="n">
-        <v>0.245</v>
+        <v>0.265</v>
       </c>
       <c r="I455" t="n">
-        <v>254900</v>
+        <v>366900</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -16361,28 +16361,28 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="F456" t="n">
-        <v>0.25</v>
+        <v>0.265</v>
       </c>
       <c r="G456" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="H456" t="n">
-        <v>0.25</v>
+        <v>0.265</v>
       </c>
       <c r="I456" t="n">
-        <v>179000</v>
+        <v>180200</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -16396,28 +16396,28 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F457" t="n">
-        <v>0.25</v>
+        <v>0.265</v>
       </c>
       <c r="G457" t="n">
-        <v>0.235</v>
+        <v>0.26</v>
       </c>
       <c r="H457" t="n">
-        <v>0.245</v>
+        <v>0.265</v>
       </c>
       <c r="I457" t="n">
-        <v>481000</v>
+        <v>41100</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -16431,28 +16431,28 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>0.235</v>
+        <v>0.26</v>
       </c>
       <c r="F458" t="n">
-        <v>0.24</v>
+        <v>0.265</v>
       </c>
       <c r="G458" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="H458" t="n">
-        <v>0.23</v>
+        <v>0.265</v>
       </c>
       <c r="I458" t="n">
-        <v>342100</v>
+        <v>58400</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -16466,28 +16466,28 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>0.225</v>
+        <v>0.255</v>
       </c>
       <c r="F459" t="n">
-        <v>0.24</v>
+        <v>0.265</v>
       </c>
       <c r="G459" t="n">
-        <v>0.21</v>
+        <v>0.255</v>
       </c>
       <c r="H459" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="I459" t="n">
-        <v>456000</v>
+        <v>144500</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16501,28 +16501,28 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0.23</v>
+        <v>0.255</v>
       </c>
       <c r="F460" t="n">
-        <v>0.23</v>
+        <v>0.265</v>
       </c>
       <c r="G460" t="n">
-        <v>0.22</v>
+        <v>0.255</v>
       </c>
       <c r="H460" t="n">
-        <v>0.23</v>
+        <v>0.265</v>
       </c>
       <c r="I460" t="n">
-        <v>200300</v>
+        <v>99500</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16536,28 +16536,28 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.22</v>
+        <v>0.255</v>
       </c>
       <c r="F461" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="G461" t="n">
-        <v>0.22</v>
+        <v>0.255</v>
       </c>
       <c r="H461" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="I461" t="n">
-        <v>142300</v>
+        <v>185600</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16571,28 +16571,28 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>0.24</v>
+        <v>0.255</v>
       </c>
       <c r="F462" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="G462" t="n">
-        <v>0.24</v>
+        <v>0.255</v>
       </c>
       <c r="H462" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="I462" t="n">
-        <v>100000</v>
+        <v>36100</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16606,30 +16606,28 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>0.24</v>
+        <v>0.255</v>
       </c>
       <c r="F463" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="G463" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H463" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I463" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.25</v>
+      </c>
+      <c r="I463" t="n">
+        <v>267400</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16643,28 +16641,28 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F464" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="G464" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="H464" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="I464" t="n">
-        <v>12700</v>
+        <v>254900</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16681,27 +16679,25 @@
         <v>0.24</v>
       </c>
       <c r="F465" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="G465" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="H465" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I465" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.25</v>
+      </c>
+      <c r="I465" t="n">
+        <v>179000</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16715,28 +16711,28 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="F466" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G466" t="n">
-        <v>0.23</v>
+        <v>0.235</v>
       </c>
       <c r="H466" t="n">
-        <v>0.26</v>
+        <v>0.245</v>
       </c>
       <c r="I466" t="n">
-        <v>192700</v>
+        <v>481000</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16750,30 +16746,28 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.26</v>
+        <v>0.235</v>
       </c>
       <c r="F467" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="G467" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="H467" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="I467" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.23</v>
+      </c>
+      <c r="I467" t="n">
+        <v>342100</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16787,30 +16781,28 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>0.26</v>
+        <v>0.225</v>
       </c>
       <c r="F468" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="G468" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="H468" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="I468" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.24</v>
+      </c>
+      <c r="I468" t="n">
+        <v>456000</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16824,28 +16816,28 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>0.255</v>
+        <v>0.23</v>
       </c>
       <c r="F469" t="n">
-        <v>0.255</v>
+        <v>0.23</v>
       </c>
       <c r="G469" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="H469" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="I469" t="n">
-        <v>11000</v>
+        <v>200300</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16859,28 +16851,28 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="F470" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="G470" t="n">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="H470" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I470" t="n">
-        <v>11600</v>
+        <v>142300</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16906,16 +16898,16 @@
         <v>0.24</v>
       </c>
       <c r="I471" t="n">
-        <v>26000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16932,25 +16924,27 @@
         <v>0.24</v>
       </c>
       <c r="F472" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="G472" t="n">
         <v>0.24</v>
       </c>
       <c r="H472" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I472" t="n">
-        <v>38200</v>
+        <v>0.24</v>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16964,28 +16958,28 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>0.245</v>
+        <v>0.24</v>
       </c>
       <c r="F473" t="n">
-        <v>0.245</v>
+        <v>0.24</v>
       </c>
       <c r="G473" t="n">
         <v>0.24</v>
       </c>
       <c r="H473" t="n">
-        <v>0.245</v>
+        <v>0.24</v>
       </c>
       <c r="I473" t="n">
-        <v>110100</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16999,28 +16993,30 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="F474" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G474" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="H474" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I474" t="n">
-        <v>95500</v>
+        <v>0.24</v>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -17037,25 +17033,25 @@
         <v>0.23</v>
       </c>
       <c r="F475" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="G475" t="n">
         <v>0.23</v>
       </c>
       <c r="H475" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I475" t="n">
-        <v>75400</v>
+        <v>192700</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -17069,28 +17065,30 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F476" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="G476" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="H476" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I476" t="n">
-        <v>281000</v>
+        <v>0.26</v>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -17104,16 +17102,16 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F477" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="G477" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="H477" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I477" t="inlineStr">
         <is>
@@ -17123,11 +17121,11 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -17141,28 +17139,28 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>0.215</v>
+        <v>0.255</v>
       </c>
       <c r="F478" t="n">
-        <v>0.23</v>
+        <v>0.255</v>
       </c>
       <c r="G478" t="n">
-        <v>0.205</v>
+        <v>0.25</v>
       </c>
       <c r="H478" t="n">
-        <v>0.215</v>
+        <v>0.25</v>
       </c>
       <c r="I478" t="n">
-        <v>944200</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -17176,28 +17174,28 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="F479" t="n">
-        <v>0.215</v>
+        <v>0.25</v>
       </c>
       <c r="G479" t="n">
-        <v>0.21</v>
+        <v>0.235</v>
       </c>
       <c r="H479" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I479" t="n">
-        <v>227300</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -17211,28 +17209,28 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="F480" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="G480" t="n">
-        <v>0.205</v>
+        <v>0.24</v>
       </c>
       <c r="H480" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I480" t="n">
-        <v>325000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -17246,28 +17244,28 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="F481" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="G481" t="n">
-        <v>0.205</v>
+        <v>0.24</v>
       </c>
       <c r="H481" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I481" t="n">
-        <v>192700</v>
+        <v>38200</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -17281,28 +17279,28 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>0.205</v>
+        <v>0.245</v>
       </c>
       <c r="F482" t="n">
-        <v>0.21</v>
+        <v>0.245</v>
       </c>
       <c r="G482" t="n">
-        <v>0.205</v>
+        <v>0.24</v>
       </c>
       <c r="H482" t="n">
-        <v>0.21</v>
+        <v>0.245</v>
       </c>
       <c r="I482" t="n">
-        <v>68800</v>
+        <v>110100</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -17316,28 +17314,28 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>0.205</v>
+        <v>0.23</v>
       </c>
       <c r="F483" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="G483" t="n">
-        <v>0.205</v>
+        <v>0.23</v>
       </c>
       <c r="H483" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I483" t="n">
-        <v>249300</v>
+        <v>95500</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -17351,28 +17349,28 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="F484" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G484" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="H484" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I484" t="n">
-        <v>1003400</v>
+        <v>75400</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -17386,28 +17384,28 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="F485" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="G485" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="H485" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I485" t="n">
-        <v>308300</v>
+        <v>281000</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -17421,28 +17419,30 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="F486" t="n">
-        <v>0.185</v>
+        <v>0.23</v>
       </c>
       <c r="G486" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="H486" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="I486" t="n">
-        <v>143900</v>
+        <v>0.23</v>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -17456,53 +17456,368 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>0.175</v>
+        <v>0.215</v>
       </c>
       <c r="F487" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="G487" t="n">
-        <v>0.175</v>
+        <v>0.205</v>
       </c>
       <c r="H487" t="n">
-        <v>0.18</v>
+        <v>0.215</v>
       </c>
       <c r="I487" t="n">
-        <v>167200</v>
+        <v>944200</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I488" t="n">
+        <v>227300</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E489" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F489" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I489" t="n">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E490" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I490" t="n">
+        <v>192700</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E491" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F491" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G491" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I491" t="n">
+        <v>68800</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E492" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I492" t="n">
+        <v>249300</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E493" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H493" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I493" t="n">
+        <v>1003400</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E494" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F494" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I494" t="n">
+        <v>308300</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E495" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I495" t="n">
+        <v>143900</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E496" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F496" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I496" t="n">
+        <v>167200</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B488" t="inlineStr">
+      <c r="B497" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>0197</t>
-        </is>
-      </c>
-      <c r="D488" t="inlineStr">
-        <is>
-          <t>WEGMANS</t>
-        </is>
-      </c>
-      <c r="E488" t="n">
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E497" t="n">
         <v>0.17</v>
       </c>
-      <c r="F488" t="n">
+      <c r="F497" t="n">
         <v>0.17</v>
       </c>
-      <c r="G488" t="n">
+      <c r="G497" t="n">
         <v>0.16</v>
       </c>
-      <c r="H488" t="n">
+      <c r="H497" t="n">
         <v>0.16</v>
       </c>
-      <c r="I488" t="n">
+      <c r="I497" t="n">
         <v>1224200</v>
       </c>
     </row>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I497"/>
+  <dimension ref="A1:I498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17821,6 +17821,41 @@
         <v>1224200</v>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E498" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F498" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I498" t="n">
+        <v>1438200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I498"/>
+  <dimension ref="A1:I499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17856,6 +17856,41 @@
         <v>1438200</v>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E499" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F499" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I499" t="n">
+        <v>313400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I499"/>
+  <dimension ref="A1:I500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17891,6 +17891,41 @@
         <v>313400</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E500" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F500" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G500" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I500" t="n">
+        <v>770000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I500"/>
+  <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17926,6 +17926,41 @@
         <v>770000</v>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E501" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F501" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G501" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>871700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I501"/>
+  <dimension ref="A1:I502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17961,6 +17961,41 @@
         <v>871700</v>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E502" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F502" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I502" t="n">
+        <v>72900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I502"/>
+  <dimension ref="A1:I503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17996,6 +17996,41 @@
         <v>72900</v>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E503" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I503" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I503"/>
+  <dimension ref="A1:I504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18031,6 +18031,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E504" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I504" t="n">
+        <v>121000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I504"/>
+  <dimension ref="A1:I505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18066,6 +18066,41 @@
         <v>121000</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E505" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I505" t="n">
+        <v>584100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I505"/>
+  <dimension ref="A1:I506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18101,6 +18101,41 @@
         <v>584100</v>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E506" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F506" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I506" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I506"/>
+  <dimension ref="A1:I507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18136,6 +18136,41 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E507" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I507" t="n">
+        <v>300900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I507"/>
+  <dimension ref="A1:I508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18171,6 +18171,41 @@
         <v>300900</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E508" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G508" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I508" t="n">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I508"/>
+  <dimension ref="A1:I509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18206,6 +18206,43 @@
         <v>130000</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E509" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G509" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I509"/>
+  <dimension ref="A1:I510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18243,6 +18243,41 @@
         </is>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E510" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G510" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I510" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I510"/>
+  <dimension ref="A1:I511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18278,6 +18278,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E511" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I511" t="n">
+        <v>211900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I511"/>
+  <dimension ref="A1:I512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18313,6 +18313,41 @@
         <v>211900</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E512" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G512" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I512" t="n">
+        <v>178000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I512"/>
+  <dimension ref="A1:I513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18348,6 +18348,41 @@
         <v>178000</v>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E513" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F513" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I513" t="n">
+        <v>1381500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I513"/>
+  <dimension ref="A1:I514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18383,6 +18383,41 @@
         <v>1381500</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E514" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I514" t="n">
+        <v>176300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I514"/>
+  <dimension ref="A1:I515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18418,6 +18418,41 @@
         <v>176300</v>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E515" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I515" t="n">
+        <v>582900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I515"/>
+  <dimension ref="A1:I516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18453,6 +18453,41 @@
         <v>582900</v>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E516" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F516" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G516" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I516" t="n">
+        <v>241100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I516"/>
+  <dimension ref="A1:I517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18488,6 +18488,41 @@
         <v>241100</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I517" t="n">
+        <v>386900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I517"/>
+  <dimension ref="A1:I518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18523,6 +18523,41 @@
         <v>386900</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I518" t="n">
+        <v>620500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I518"/>
+  <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18558,6 +18558,41 @@
         <v>620500</v>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E519" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F519" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I519" t="n">
+        <v>630800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I519"/>
+  <dimension ref="A1:I520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18593,6 +18593,41 @@
         <v>630800</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E520" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I520" t="n">
+        <v>1312100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I520"/>
+  <dimension ref="A1:I521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18628,6 +18628,41 @@
         <v>1312100</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E521" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I521" t="n">
+        <v>275000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I521"/>
+  <dimension ref="A1:I522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18663,6 +18663,41 @@
         <v>275000</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E522" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I522" t="n">
+        <v>199700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I522"/>
+  <dimension ref="A1:I524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18698,6 +18698,76 @@
         <v>199700</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E523" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G523" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I523" t="n">
+        <v>269500</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E524" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I524" t="n">
+        <v>573500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I524"/>
+  <dimension ref="A1:I525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18768,6 +18768,41 @@
         <v>573500</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E525" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I525" t="n">
+        <v>91000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I525"/>
+  <dimension ref="A1:I528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18803,6 +18803,111 @@
         <v>91000</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I526" t="n">
+        <v>81500</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E527" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I527" t="n">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I528" t="n">
+        <v>198000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I528"/>
+  <dimension ref="A1:I529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18908,6 +18908,41 @@
         <v>198000</v>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E529" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I529" t="n">
+        <v>212900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I529"/>
+  <dimension ref="A1:I530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18943,6 +18943,41 @@
         <v>212900</v>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G530" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I530" t="n">
+        <v>142800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0197.xlsx
+++ b/data/0197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I530"/>
+  <dimension ref="A1:I533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18978,6 +18978,111 @@
         <v>142800</v>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G531" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I531" t="n">
+        <v>175900</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I532" t="n">
+        <v>367000</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>0197</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>WEGMANS</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I533" t="n">
+        <v>79600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
